--- a/code/influenza_symptoms.xlsx
+++ b/code/influenza_symptoms.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agutf\Sync\school-flu\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8191D1A-988D-42EF-8264-5AD94CEDA4BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF51461-F44A-4A0C-86CF-EBF97EFDA3CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="21378" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3114" yWindow="3114" windowWidth="15888" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="influenza_symptoms" sheetId="1" r:id="rId1"/>
+    <sheet name="raw" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Time</t>
   </si>
@@ -62,6 +63,15 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>peak shedding occurs in day 2</t>
+  </si>
+  <si>
+    <t>peak systemic occurs on day 2</t>
+  </si>
+  <si>
+    <t>Updated 9/7/2020 for Leung, Cowling et al data.</t>
   </si>
 </sst>
 </file>
@@ -604,6 +614,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194711</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>65069</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5351725-7E84-4992-A308-8153F54D7F56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="45720" y="270510"/>
+          <a:ext cx="4629551" cy="3452159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>68974</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76444</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC1155DF-094D-450A-8ACE-FDE0B706848E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5760720" y="182880"/>
+          <a:ext cx="4549534" cy="2819644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -906,7 +1009,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J10"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -971,13 +1074,13 @@
       <c r="G2" s="1">
         <v>0.25</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
@@ -1006,14 +1109,14 @@
       <c r="G3" s="1">
         <v>0.5</v>
       </c>
-      <c r="H3" s="1">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.89900000000000002</v>
+      <c r="H3">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="I3">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="J3">
+        <v>0.90300000000000002</v>
       </c>
       <c r="K3" t="s">
         <v>11</v>
@@ -1041,14 +1144,14 @@
       <c r="G4" s="1">
         <v>0.25</v>
       </c>
-      <c r="H4" s="1">
-        <v>0.316</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.247</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.17799999999999999</v>
+      <c r="H4">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="I4">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="J4">
+        <v>0.215</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
@@ -1076,14 +1179,14 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="1">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.34200000000000003</v>
+      <c r="H5">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="I5">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.372</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1108,14 +1211,17 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="1">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.47199999999999998</v>
+      <c r="H6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I6">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="J6">
+        <v>0.496</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1140,14 +1246,14 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="1">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.73399999999999999</v>
+      <c r="H7">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="I7">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="J7">
+        <v>0.746</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1172,14 +1278,14 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.85</v>
+      <c r="H8">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="J8">
+        <v>0.85699999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1204,14 +1310,14 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="1">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.92500000000000004</v>
+      <c r="H9">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="I9">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="J9">
+        <v>0.92900000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1236,18 +1342,42 @@
       <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="H10" s="1">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.93899999999999995</v>
+      <c r="H10">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="I10">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="J10">
+        <v>0.94099999999999995</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51A52B3-E15F-47A7-985E-F2CA47FB7D54}">
+  <dimension ref="B22:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>